--- a/testdata/Men Singles.xlsx
+++ b/testdata/Men Singles.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>SN</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>Wang Chuqin</t>
@@ -192,11 +195,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -801,8 +805,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,7 +1352,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1376,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1389,13 +1396,19 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>36892</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1403,13 +1416,19 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>36893</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1417,41 +1436,59 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>36894</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>36895</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>36896</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1459,13 +1496,19 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>36897</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1473,228 +1516,354 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>36898</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="1">
+        <v>36899</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>36900</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>36901</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>36902</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1">
+        <v>36903</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>36904</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1">
+        <v>36905</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>36906</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="1">
+        <v>36907</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1">
+        <v>36908</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>36909</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1">
+        <v>36910</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>36911</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>36912</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>36913</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
+        <v>36914</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1">
+        <v>36915</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1">
+        <v>36916</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1">
+        <v>36917</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E28" s="1">
+        <v>36918</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
